--- a/медиаплан.xlsx
+++ b/медиаплан.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lida\Desktop\work\plan\media\pattern\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3450" windowWidth="19200" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>Клиент/Брэнд</t>
   </si>
@@ -253,6 +248,18 @@
   </si>
   <si>
     <t>01.08-31.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Январь</t>
+  </si>
+  <si>
+    <t>Февраль</t>
+  </si>
+  <si>
+    <t>Март</t>
   </si>
 </sst>
 </file>
@@ -261,7 +268,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$-419]d\ mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -484,18 +491,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -506,29 +521,23 @@
     <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -600,7 +609,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,7 +644,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -812,7 +821,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -820,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DA28"/>
+  <dimension ref="A1:DO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CP12" sqref="CP12"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DN8" sqref="DN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +885,7 @@
     <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -982,8 +991,22 @@
       <c r="CY1" s="4"/>
       <c r="CZ1" s="4"/>
       <c r="DA1" s="4"/>
+      <c r="DB1" s="5"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
+      <c r="DE1" s="5"/>
+      <c r="DF1" s="5"/>
+      <c r="DG1" s="5"/>
+      <c r="DH1" s="5"/>
+      <c r="DI1" s="5"/>
+      <c r="DJ1" s="5"/>
+      <c r="DK1" s="5"/>
+      <c r="DL1" s="5"/>
+      <c r="DM1" s="5"/>
+      <c r="DN1" s="5"/>
+      <c r="DO1" s="5"/>
     </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1091,8 +1114,22 @@
       <c r="CY2" s="4"/>
       <c r="CZ2" s="4"/>
       <c r="DA2" s="4"/>
+      <c r="DB2" s="5"/>
+      <c r="DC2" s="5"/>
+      <c r="DD2" s="5"/>
+      <c r="DE2" s="5"/>
+      <c r="DF2" s="5"/>
+      <c r="DG2" s="5"/>
+      <c r="DH2" s="5"/>
+      <c r="DI2" s="5"/>
+      <c r="DJ2" s="5"/>
+      <c r="DK2" s="5"/>
+      <c r="DL2" s="5"/>
+      <c r="DM2" s="5"/>
+      <c r="DN2" s="5"/>
+      <c r="DO2" s="5"/>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1200,8 +1237,22 @@
       <c r="CY3" s="4"/>
       <c r="CZ3" s="4"/>
       <c r="DA3" s="4"/>
+      <c r="DB3" s="5"/>
+      <c r="DC3" s="5"/>
+      <c r="DD3" s="5"/>
+      <c r="DE3" s="5"/>
+      <c r="DF3" s="5"/>
+      <c r="DG3" s="5"/>
+      <c r="DH3" s="5"/>
+      <c r="DI3" s="5"/>
+      <c r="DJ3" s="5"/>
+      <c r="DK3" s="5"/>
+      <c r="DL3" s="5"/>
+      <c r="DM3" s="5"/>
+      <c r="DN3" s="5"/>
+      <c r="DO3" s="5"/>
     </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1309,8 +1360,22 @@
       <c r="CY4" s="4"/>
       <c r="CZ4" s="4"/>
       <c r="DA4" s="4"/>
+      <c r="DB4" s="5"/>
+      <c r="DC4" s="5"/>
+      <c r="DD4" s="5"/>
+      <c r="DE4" s="5"/>
+      <c r="DF4" s="5"/>
+      <c r="DG4" s="5"/>
+      <c r="DH4" s="5"/>
+      <c r="DI4" s="5"/>
+      <c r="DJ4" s="5"/>
+      <c r="DK4" s="5"/>
+      <c r="DL4" s="5"/>
+      <c r="DM4" s="5"/>
+      <c r="DN4" s="5"/>
+      <c r="DO4" s="5"/>
     </row>
-    <row r="5" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1418,8 +1483,22 @@
       <c r="CY5" s="4"/>
       <c r="CZ5" s="4"/>
       <c r="DA5" s="4"/>
+      <c r="DB5" s="5"/>
+      <c r="DC5" s="5"/>
+      <c r="DD5" s="5"/>
+      <c r="DE5" s="5"/>
+      <c r="DF5" s="5"/>
+      <c r="DG5" s="5"/>
+      <c r="DH5" s="5"/>
+      <c r="DI5" s="5"/>
+      <c r="DJ5" s="5"/>
+      <c r="DK5" s="5"/>
+      <c r="DL5" s="5"/>
+      <c r="DM5" s="5"/>
+      <c r="DN5" s="5"/>
+      <c r="DO5" s="5"/>
     </row>
-    <row r="6" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1527,8 +1606,22 @@
       <c r="CY6" s="4"/>
       <c r="CZ6" s="4"/>
       <c r="DA6" s="4"/>
+      <c r="DB6" s="5"/>
+      <c r="DC6" s="5"/>
+      <c r="DD6" s="5"/>
+      <c r="DE6" s="5"/>
+      <c r="DF6" s="5"/>
+      <c r="DG6" s="5"/>
+      <c r="DH6" s="5"/>
+      <c r="DI6" s="5"/>
+      <c r="DJ6" s="5"/>
+      <c r="DK6" s="5"/>
+      <c r="DL6" s="5"/>
+      <c r="DM6" s="5"/>
+      <c r="DN6" s="5"/>
+      <c r="DO6" s="5"/>
     </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1636,8 +1729,22 @@
       <c r="CY7" s="4"/>
       <c r="CZ7" s="4"/>
       <c r="DA7" s="4"/>
+      <c r="DB7" s="5"/>
+      <c r="DC7" s="5"/>
+      <c r="DD7" s="5"/>
+      <c r="DE7" s="5"/>
+      <c r="DF7" s="5"/>
+      <c r="DG7" s="5"/>
+      <c r="DH7" s="5"/>
+      <c r="DI7" s="5"/>
+      <c r="DJ7" s="5"/>
+      <c r="DK7" s="5"/>
+      <c r="DL7" s="5"/>
+      <c r="DM7" s="5"/>
+      <c r="DN7" s="5"/>
+      <c r="DO7" s="5"/>
     </row>
-    <row r="8" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1743,8 +1850,22 @@
       <c r="CY8" s="4"/>
       <c r="CZ8" s="4"/>
       <c r="DA8" s="4"/>
+      <c r="DB8" s="5"/>
+      <c r="DC8" s="5"/>
+      <c r="DD8" s="5"/>
+      <c r="DE8" s="5"/>
+      <c r="DF8" s="5"/>
+      <c r="DG8" s="5"/>
+      <c r="DH8" s="5"/>
+      <c r="DI8" s="5"/>
+      <c r="DJ8" s="5"/>
+      <c r="DK8" s="5"/>
+      <c r="DL8" s="5"/>
+      <c r="DM8" s="5"/>
+      <c r="DN8" s="5"/>
+      <c r="DO8" s="5"/>
     </row>
-    <row r="9" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1850,8 +1971,22 @@
       <c r="CY9" s="4"/>
       <c r="CZ9" s="4"/>
       <c r="DA9" s="4"/>
+      <c r="DB9" s="5"/>
+      <c r="DC9" s="5"/>
+      <c r="DD9" s="5"/>
+      <c r="DE9" s="5"/>
+      <c r="DF9" s="5"/>
+      <c r="DG9" s="5"/>
+      <c r="DH9" s="5"/>
+      <c r="DI9" s="5"/>
+      <c r="DJ9" s="5"/>
+      <c r="DK9" s="5"/>
+      <c r="DL9" s="5"/>
+      <c r="DM9" s="5"/>
+      <c r="DN9" s="5"/>
+      <c r="DO9" s="5"/>
     </row>
-    <row r="10" spans="1:105" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:119" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1868,159 +2003,179 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="23" t="s">
+      <c r="Q10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="23" t="s">
+      <c r="S10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="23" t="s">
+      <c r="T10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="23" t="s">
+      <c r="U10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="23" t="s">
+      <c r="V10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="W10" s="23" t="s">
+      <c r="W10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="X10" s="23" t="s">
+      <c r="X10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="20" t="s">
+      <c r="Y10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20" t="s">
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AB10" s="20" t="s">
+      <c r="AB10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AC10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="20" t="s">
+      <c r="AD10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AE10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AF10" s="20" t="s">
+      <c r="AF10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AG10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AH10" s="20" t="s">
+      <c r="AH10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AI10" s="22" t="s">
+      <c r="AI10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="22"/>
-      <c r="AR10" s="22"/>
-      <c r="AS10" s="22"/>
-      <c r="AT10" s="22"/>
-      <c r="AU10" s="22"/>
-      <c r="AV10" s="18" t="s">
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW10" s="20"/>
+      <c r="AX10" s="20"/>
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB10" s="20"/>
+      <c r="BC10" s="20"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="20"/>
+      <c r="BF10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG10" s="20"/>
+      <c r="BH10" s="20"/>
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="20"/>
+      <c r="BK10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="AW10" s="18"/>
-      <c r="AX10" s="18"/>
-      <c r="AY10" s="18"/>
-      <c r="AZ10" s="18"/>
-      <c r="BA10" s="16" t="s">
+      <c r="BL10" s="20"/>
+      <c r="BM10" s="20"/>
+      <c r="BN10" s="20"/>
+      <c r="BO10" s="20"/>
+      <c r="BP10" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="16"/>
-      <c r="BD10" s="16"/>
-      <c r="BE10" s="16"/>
-      <c r="BF10" s="16"/>
-      <c r="BG10" s="16" t="s">
+      <c r="BQ10" s="22"/>
+      <c r="BR10" s="22"/>
+      <c r="BS10" s="22"/>
+      <c r="BT10" s="23"/>
+      <c r="BU10" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BH10" s="16"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="16"/>
-      <c r="BK10" s="16"/>
-      <c r="BL10" s="16" t="s">
+      <c r="BV10" s="22"/>
+      <c r="BW10" s="22"/>
+      <c r="BX10" s="22"/>
+      <c r="BY10" s="23"/>
+      <c r="BZ10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BM10" s="16"/>
-      <c r="BN10" s="16"/>
-      <c r="BO10" s="16"/>
-      <c r="BP10" s="16"/>
-      <c r="BQ10" s="16" t="s">
+      <c r="CA10" s="22"/>
+      <c r="CB10" s="22"/>
+      <c r="CC10" s="22"/>
+      <c r="CD10" s="23"/>
+      <c r="CE10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BR10" s="16"/>
-      <c r="BS10" s="16"/>
-      <c r="BT10" s="16"/>
-      <c r="BU10" s="16"/>
-      <c r="BV10" s="16"/>
-      <c r="BW10" s="16" t="s">
+      <c r="CF10" s="22"/>
+      <c r="CG10" s="22"/>
+      <c r="CH10" s="22"/>
+      <c r="CI10" s="23"/>
+      <c r="CJ10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BX10" s="16"/>
-      <c r="BY10" s="16"/>
-      <c r="BZ10" s="16"/>
-      <c r="CA10" s="16"/>
-      <c r="CB10" s="12" t="s">
+      <c r="CK10" s="22"/>
+      <c r="CL10" s="22"/>
+      <c r="CM10" s="22"/>
+      <c r="CN10" s="23"/>
+      <c r="CO10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="CC10" s="13"/>
-      <c r="CD10" s="13"/>
-      <c r="CE10" s="13"/>
-      <c r="CF10" s="19"/>
-      <c r="CG10" s="16" t="s">
+      <c r="CP10" s="18"/>
+      <c r="CQ10" s="18"/>
+      <c r="CR10" s="18"/>
+      <c r="CS10" s="18"/>
+      <c r="CT10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="CH10" s="16"/>
-      <c r="CI10" s="16"/>
-      <c r="CJ10" s="16"/>
-      <c r="CK10" s="16"/>
-      <c r="CL10" s="16" t="s">
+      <c r="CU10" s="18"/>
+      <c r="CV10" s="18"/>
+      <c r="CW10" s="18"/>
+      <c r="CX10" s="18"/>
+      <c r="CY10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="CM10" s="16"/>
-      <c r="CN10" s="16"/>
-      <c r="CO10" s="16"/>
-      <c r="CP10" s="12" t="s">
+      <c r="CZ10" s="18"/>
+      <c r="DA10" s="18"/>
+      <c r="DB10" s="18"/>
+      <c r="DC10" s="21"/>
+      <c r="DD10" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="CQ10" s="13"/>
-      <c r="CR10" s="13"/>
-      <c r="CS10" s="13"/>
-      <c r="CT10" s="19"/>
-      <c r="CU10" s="16" t="s">
+      <c r="DE10" s="22"/>
+      <c r="DF10" s="22"/>
+      <c r="DG10" s="22"/>
+      <c r="DH10" s="23"/>
+      <c r="DI10" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="CV10" s="16" t="s">
+      <c r="DJ10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="CW10" s="12" t="s">
+      <c r="DK10" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="CX10" s="13"/>
-      <c r="CY10" s="13"/>
-      <c r="CZ10" s="13"/>
-      <c r="DA10" s="13"/>
+      <c r="DL10" s="22"/>
+      <c r="DM10" s="22"/>
+      <c r="DN10" s="22"/>
+      <c r="DO10" s="22"/>
     </row>
-    <row r="11" spans="1:105" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:119" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2037,285 +2192,340 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20" t="s">
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AJ11" s="20" t="s">
+      <c r="AJ11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AK11" s="20" t="s">
+      <c r="AK11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AL11" s="20" t="s">
+      <c r="AL11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AM11" s="20" t="s">
+      <c r="AM11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AN11" s="20" t="s">
+      <c r="AN11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AO11" s="20" t="s">
+      <c r="AO11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AP11" s="20" t="s">
+      <c r="AP11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AQ11" s="20" t="s">
+      <c r="AQ11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AR11" s="20" t="s">
+      <c r="AR11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AS11" s="20" t="s">
+      <c r="AS11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AT11" s="20" t="s">
+      <c r="AT11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AU11" s="20" t="s">
+      <c r="AU11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AV11" s="27">
-        <f>AU12+1</f>
-        <v>1</v>
-      </c>
-      <c r="AW11" s="27">
+      <c r="AV11" s="12">
+        <v>43831</v>
+      </c>
+      <c r="AW11" s="12">
         <f>AV12+1</f>
-        <v>44291</v>
-      </c>
-      <c r="AX11" s="27">
-        <f t="shared" ref="AV11:CO11" si="0">AW12+1</f>
-        <v>44298</v>
-      </c>
-      <c r="AY11" s="27">
-        <f t="shared" si="0"/>
-        <v>44305</v>
-      </c>
-      <c r="AZ11" s="27">
-        <f t="shared" si="0"/>
-        <v>44312</v>
-      </c>
-      <c r="BA11" s="27">
-        <f t="shared" si="0"/>
-        <v>44317</v>
-      </c>
-      <c r="BB11" s="27">
-        <f t="shared" si="0"/>
-        <v>44319</v>
-      </c>
-      <c r="BC11" s="27">
-        <f t="shared" si="0"/>
-        <v>44326</v>
-      </c>
-      <c r="BD11" s="27">
-        <f t="shared" si="0"/>
-        <v>44333</v>
-      </c>
-      <c r="BE11" s="27">
-        <f t="shared" si="0"/>
-        <v>44340</v>
-      </c>
-      <c r="BF11" s="27">
-        <f t="shared" si="0"/>
-        <v>44347</v>
-      </c>
-      <c r="BG11" s="27">
-        <f t="shared" si="0"/>
-        <v>44348</v>
-      </c>
-      <c r="BH11" s="27">
-        <f t="shared" si="0"/>
-        <v>44354</v>
-      </c>
-      <c r="BI11" s="27">
-        <f t="shared" si="0"/>
-        <v>44361</v>
-      </c>
-      <c r="BJ11" s="27">
-        <f t="shared" si="0"/>
-        <v>44368</v>
-      </c>
-      <c r="BK11" s="27">
-        <f t="shared" si="0"/>
-        <v>44375</v>
-      </c>
-      <c r="BL11" s="27">
-        <f t="shared" si="0"/>
-        <v>44378</v>
-      </c>
-      <c r="BM11" s="27">
-        <f>BL12+1</f>
-        <v>44382</v>
-      </c>
-      <c r="BN11" s="27">
-        <f t="shared" si="0"/>
-        <v>44389</v>
-      </c>
-      <c r="BO11" s="27">
-        <f t="shared" si="0"/>
-        <v>44396</v>
-      </c>
-      <c r="BP11" s="27">
-        <f t="shared" si="0"/>
-        <v>44403</v>
-      </c>
-      <c r="BQ11" s="27">
-        <f t="shared" si="0"/>
-        <v>44409</v>
-      </c>
-      <c r="BR11" s="27">
-        <f t="shared" si="0"/>
-        <v>44410</v>
-      </c>
-      <c r="BS11" s="27">
-        <f t="shared" si="0"/>
-        <v>44417</v>
-      </c>
-      <c r="BT11" s="27">
-        <f t="shared" si="0"/>
-        <v>44424</v>
-      </c>
-      <c r="BU11" s="27">
-        <f t="shared" si="0"/>
-        <v>44431</v>
-      </c>
-      <c r="BV11" s="27">
-        <f t="shared" si="0"/>
-        <v>44438</v>
-      </c>
-      <c r="BW11" s="27">
-        <f t="shared" si="0"/>
-        <v>44440</v>
-      </c>
-      <c r="BX11" s="27">
-        <f t="shared" si="0"/>
-        <v>44445</v>
-      </c>
-      <c r="BY11" s="27">
-        <f t="shared" si="0"/>
-        <v>44452</v>
-      </c>
-      <c r="BZ11" s="27">
-        <f t="shared" si="0"/>
-        <v>44459</v>
-      </c>
-      <c r="CA11" s="27">
-        <f t="shared" si="0"/>
-        <v>44466</v>
-      </c>
-      <c r="CB11" s="27">
-        <f t="shared" si="0"/>
-        <v>44470</v>
-      </c>
-      <c r="CC11" s="27">
-        <f t="shared" si="0"/>
-        <v>44473</v>
-      </c>
-      <c r="CD11" s="27">
-        <f t="shared" si="0"/>
-        <v>44480</v>
-      </c>
-      <c r="CE11" s="27">
-        <f t="shared" si="0"/>
-        <v>44487</v>
-      </c>
-      <c r="CF11" s="27">
-        <f t="shared" si="0"/>
-        <v>44494</v>
-      </c>
-      <c r="CG11" s="27">
-        <f t="shared" si="0"/>
-        <v>44501</v>
-      </c>
-      <c r="CH11" s="27">
-        <f t="shared" si="0"/>
-        <v>44508</v>
-      </c>
-      <c r="CI11" s="27">
-        <f t="shared" si="0"/>
-        <v>44515</v>
-      </c>
-      <c r="CJ11" s="27">
-        <f t="shared" si="0"/>
-        <v>44522</v>
-      </c>
-      <c r="CK11" s="27">
-        <f t="shared" si="0"/>
-        <v>44529</v>
-      </c>
-      <c r="CL11" s="27">
-        <f t="shared" si="0"/>
-        <v>44531</v>
-      </c>
-      <c r="CM11" s="27">
-        <f t="shared" si="0"/>
-        <v>44536</v>
-      </c>
-      <c r="CN11" s="27">
-        <f t="shared" si="0"/>
-        <v>44543</v>
-      </c>
-      <c r="CO11" s="27">
-        <f t="shared" si="0"/>
-        <v>44550</v>
-      </c>
-      <c r="CP11" s="1" t="s">
+        <v>43835</v>
+      </c>
+      <c r="AX11" s="12">
+        <f t="shared" ref="AX11" si="0">AW12+1</f>
+        <v>43842</v>
+      </c>
+      <c r="AY11" s="12">
+        <f t="shared" ref="AY11" si="1">AX12+1</f>
+        <v>43849</v>
+      </c>
+      <c r="AZ11" s="12">
+        <f t="shared" ref="AZ11:BA11" si="2">AY12+1</f>
+        <v>43856</v>
+      </c>
+      <c r="BA11" s="12">
+        <f t="shared" si="2"/>
+        <v>43862</v>
+      </c>
+      <c r="BB11" s="12">
+        <f t="shared" ref="BB11" si="3">BA12+1</f>
+        <v>43868</v>
+      </c>
+      <c r="BC11" s="12">
+        <f t="shared" ref="BC11" si="4">BB12+1</f>
+        <v>43874</v>
+      </c>
+      <c r="BD11" s="12">
+        <f t="shared" ref="BD11" si="5">BC12+1</f>
+        <v>43880</v>
+      </c>
+      <c r="BE11" s="12">
+        <f t="shared" ref="BE11" si="6">BD12+1</f>
+        <v>43886</v>
+      </c>
+      <c r="BF11" s="12">
+        <f t="shared" ref="BF11" si="7">BE12+1</f>
+        <v>43891</v>
+      </c>
+      <c r="BG11" s="12">
+        <f t="shared" ref="BG11" si="8">BF12+1</f>
+        <v>43897</v>
+      </c>
+      <c r="BH11" s="12">
+        <f t="shared" ref="BH11" si="9">BG12+1</f>
+        <v>43903</v>
+      </c>
+      <c r="BI11" s="12">
+        <f t="shared" ref="BI11" si="10">BH12+1</f>
+        <v>43909</v>
+      </c>
+      <c r="BJ11" s="12">
+        <f t="shared" ref="BJ11" si="11">BI12+1</f>
+        <v>43915</v>
+      </c>
+      <c r="BK11" s="12">
+        <f t="shared" ref="BK11" si="12">BJ12+1</f>
+        <v>43922</v>
+      </c>
+      <c r="BL11" s="12">
+        <f t="shared" ref="BL11" si="13">BK12+1</f>
+        <v>43928</v>
+      </c>
+      <c r="BM11" s="12">
+        <f t="shared" ref="BM11" si="14">BL12+1</f>
+        <v>43934</v>
+      </c>
+      <c r="BN11" s="12">
+        <f t="shared" ref="BN11" si="15">BM12+1</f>
+        <v>43940</v>
+      </c>
+      <c r="BO11" s="12">
+        <f t="shared" ref="BO11:BP11" si="16">BN12+1</f>
+        <v>43946</v>
+      </c>
+      <c r="BP11" s="12">
+        <f t="shared" si="16"/>
+        <v>43952</v>
+      </c>
+      <c r="BQ11" s="12">
+        <f>BP12+1</f>
+        <v>43957</v>
+      </c>
+      <c r="BR11" s="12">
+        <f>BQ12+1</f>
+        <v>43964</v>
+      </c>
+      <c r="BS11" s="12">
+        <f>BR12+1</f>
+        <v>43971</v>
+      </c>
+      <c r="BT11" s="12">
+        <f>BS12+1</f>
+        <v>43978</v>
+      </c>
+      <c r="BU11" s="12">
+        <f>BT12+1</f>
+        <v>43983</v>
+      </c>
+      <c r="BV11" s="12">
+        <f>BU12+1</f>
+        <v>43988</v>
+      </c>
+      <c r="BW11" s="12">
+        <f>BV12+1</f>
+        <v>43995</v>
+      </c>
+      <c r="BX11" s="12">
+        <f>BW12+1</f>
+        <v>44002</v>
+      </c>
+      <c r="BY11" s="12">
+        <f>BX12+1</f>
+        <v>44009</v>
+      </c>
+      <c r="BZ11" s="12">
+        <f>BY12+1</f>
+        <v>44013</v>
+      </c>
+      <c r="CA11" s="12">
+        <f>BZ12+1</f>
+        <v>44018</v>
+      </c>
+      <c r="CB11" s="12">
+        <f>CA12+1</f>
+        <v>44025</v>
+      </c>
+      <c r="CC11" s="12">
+        <f>CB12+1</f>
+        <v>44032</v>
+      </c>
+      <c r="CD11" s="12">
+        <f>CC12+1</f>
+        <v>44039</v>
+      </c>
+      <c r="CE11" s="12">
+        <f>CD12+1</f>
+        <v>44044</v>
+      </c>
+      <c r="CF11" s="12">
+        <f>CE12+1</f>
+        <v>44049</v>
+      </c>
+      <c r="CG11" s="12">
+        <f>CF12+1</f>
+        <v>44056</v>
+      </c>
+      <c r="CH11" s="12">
+        <f>CG12+1</f>
+        <v>44063</v>
+      </c>
+      <c r="CI11" s="12">
+        <f>CH12+1</f>
+        <v>44070</v>
+      </c>
+      <c r="CJ11" s="12">
+        <f>CI12+1</f>
+        <v>44075</v>
+      </c>
+      <c r="CK11" s="12">
+        <f>CJ12+1</f>
+        <v>44080</v>
+      </c>
+      <c r="CL11" s="12">
+        <f>CK12+1</f>
+        <v>44087</v>
+      </c>
+      <c r="CM11" s="12">
+        <f>CL12+1</f>
+        <v>44094</v>
+      </c>
+      <c r="CN11" s="12">
+        <f>CM12+1</f>
+        <v>44101</v>
+      </c>
+      <c r="CO11" s="12">
+        <f>CN12+1</f>
+        <v>44105</v>
+      </c>
+      <c r="CP11" s="12">
+        <f>CO12+1</f>
+        <v>44110</v>
+      </c>
+      <c r="CQ11" s="12">
+        <f>CP12+1</f>
+        <v>44117</v>
+      </c>
+      <c r="CR11" s="12">
+        <f>CQ12+1</f>
+        <v>44124</v>
+      </c>
+      <c r="CS11" s="12">
+        <f>CR12+1</f>
+        <v>44131</v>
+      </c>
+      <c r="CT11" s="12">
+        <f>CS12+1</f>
+        <v>44136</v>
+      </c>
+      <c r="CU11" s="12">
+        <f>CT12+1</f>
+        <v>44141</v>
+      </c>
+      <c r="CV11" s="12">
+        <f>CU12+1</f>
+        <v>44148</v>
+      </c>
+      <c r="CW11" s="12">
+        <f>CV12+1</f>
+        <v>44155</v>
+      </c>
+      <c r="CX11" s="12">
+        <f>CW12+1</f>
+        <v>44162</v>
+      </c>
+      <c r="CY11" s="12">
+        <f>CX12+1</f>
+        <v>44166</v>
+      </c>
+      <c r="CZ11" s="12">
+        <f>CY12+1</f>
+        <v>44171</v>
+      </c>
+      <c r="DA11" s="12">
+        <f>CZ12+1</f>
+        <v>44178</v>
+      </c>
+      <c r="DB11" s="12">
+        <f>DA12+1</f>
+        <v>44185</v>
+      </c>
+      <c r="DC11" s="27">
+        <f>DB12+1</f>
+        <v>44192</v>
+      </c>
+      <c r="DD11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="CQ11" s="1" t="str">
-        <f>BA10</f>
+      <c r="DE11" s="1" t="str">
+        <f>BP10</f>
         <v>Май</v>
       </c>
-      <c r="CR11" s="1" t="str">
-        <f>BG10</f>
-        <v>Июнь</v>
-      </c>
-      <c r="CS11" s="1" t="str">
-        <f>BL10</f>
-        <v>Июль</v>
-      </c>
-      <c r="CT11" s="1" t="str">
-        <f>BQ10</f>
-        <v>Август</v>
-      </c>
-      <c r="CU11" s="16"/>
-      <c r="CV11" s="16"/>
-      <c r="CW11" s="14" t="s">
+      <c r="DF11" s="1">
+        <f>BV10</f>
+        <v>0</v>
+      </c>
+      <c r="DG11" s="1">
+        <f>CA10</f>
+        <v>0</v>
+      </c>
+      <c r="DH11" s="1">
+        <f>CF10</f>
+        <v>0</v>
+      </c>
+      <c r="DI11" s="18"/>
+      <c r="DJ11" s="18"/>
+      <c r="DK11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="CX11" s="14" t="s">
+      <c r="DL11" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="CY11" s="14" t="s">
+      <c r="DM11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="CZ11" s="14" t="s">
+      <c r="DN11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="DA11" s="14" t="s">
+      <c r="DO11" s="24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:105" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:119" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -2364,399 +2574,2363 @@
       <c r="P12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="21"/>
-      <c r="AR12" s="21"/>
-      <c r="AS12" s="21"/>
-      <c r="AT12" s="21"/>
-      <c r="AU12" s="21"/>
-      <c r="AV12" s="26">
-        <v>44290</v>
-      </c>
-      <c r="AW12" s="26">
-        <f t="shared" ref="AW12:CO12" si="1">AW11+6</f>
-        <v>44297</v>
-      </c>
-      <c r="AX12" s="26">
-        <f t="shared" si="1"/>
-        <v>44304</v>
-      </c>
-      <c r="AY12" s="26">
-        <f t="shared" si="1"/>
-        <v>44311</v>
-      </c>
-      <c r="AZ12" s="26">
-        <v>44316</v>
-      </c>
-      <c r="BA12" s="26">
-        <v>44318</v>
-      </c>
-      <c r="BB12" s="26">
-        <f t="shared" si="1"/>
-        <v>44325</v>
-      </c>
-      <c r="BC12" s="26">
-        <f t="shared" si="1"/>
-        <v>44332</v>
-      </c>
-      <c r="BD12" s="26">
-        <f t="shared" si="1"/>
-        <v>44339</v>
-      </c>
-      <c r="BE12" s="26">
-        <f t="shared" si="1"/>
-        <v>44346</v>
-      </c>
-      <c r="BF12" s="26">
-        <v>44347</v>
-      </c>
-      <c r="BG12" s="26">
-        <v>44353</v>
-      </c>
-      <c r="BH12" s="26">
-        <f t="shared" si="1"/>
-        <v>44360</v>
-      </c>
-      <c r="BI12" s="26">
-        <f t="shared" si="1"/>
-        <v>44367</v>
-      </c>
-      <c r="BJ12" s="26">
-        <f t="shared" si="1"/>
-        <v>44374</v>
-      </c>
-      <c r="BK12" s="26">
-        <v>44377</v>
-      </c>
-      <c r="BL12" s="26">
-        <v>44381</v>
-      </c>
-      <c r="BM12" s="26">
-        <f t="shared" si="1"/>
-        <v>44388</v>
-      </c>
-      <c r="BN12" s="26">
-        <f t="shared" si="1"/>
-        <v>44395</v>
-      </c>
-      <c r="BO12" s="26">
-        <f t="shared" si="1"/>
-        <v>44402</v>
-      </c>
-      <c r="BP12" s="26">
-        <v>44408</v>
-      </c>
-      <c r="BQ12" s="26">
-        <v>44409</v>
-      </c>
-      <c r="BR12" s="26">
-        <f t="shared" si="1"/>
-        <v>44416</v>
-      </c>
-      <c r="BS12" s="26">
-        <f t="shared" si="1"/>
-        <v>44423</v>
-      </c>
-      <c r="BT12" s="26">
-        <f t="shared" si="1"/>
-        <v>44430</v>
-      </c>
-      <c r="BU12" s="26">
-        <f t="shared" si="1"/>
-        <v>44437</v>
-      </c>
-      <c r="BV12" s="26">
-        <v>44439</v>
-      </c>
-      <c r="BW12" s="26">
-        <v>44444</v>
-      </c>
-      <c r="BX12" s="26">
-        <f t="shared" si="1"/>
-        <v>44451</v>
-      </c>
-      <c r="BY12" s="26">
-        <f t="shared" si="1"/>
-        <v>44458</v>
-      </c>
-      <c r="BZ12" s="26">
-        <f t="shared" si="1"/>
-        <v>44465</v>
-      </c>
-      <c r="CA12" s="26">
-        <v>44469</v>
-      </c>
-      <c r="CB12" s="26">
-        <v>44472</v>
-      </c>
-      <c r="CC12" s="26">
-        <f t="shared" si="1"/>
-        <v>44479</v>
-      </c>
-      <c r="CD12" s="26">
-        <f t="shared" si="1"/>
-        <v>44486</v>
-      </c>
-      <c r="CE12" s="26">
-        <f t="shared" si="1"/>
-        <v>44493</v>
-      </c>
-      <c r="CF12" s="26">
-        <f t="shared" si="1"/>
-        <v>44500</v>
-      </c>
-      <c r="CG12" s="26">
-        <f t="shared" si="1"/>
-        <v>44507</v>
-      </c>
-      <c r="CH12" s="26">
-        <f t="shared" si="1"/>
-        <v>44514</v>
-      </c>
-      <c r="CI12" s="26">
-        <f t="shared" si="1"/>
-        <v>44521</v>
-      </c>
-      <c r="CJ12" s="26">
-        <f t="shared" si="1"/>
-        <v>44528</v>
-      </c>
-      <c r="CK12" s="26">
-        <v>44530</v>
-      </c>
-      <c r="CL12" s="26">
-        <v>44535</v>
-      </c>
-      <c r="CM12" s="26">
-        <f t="shared" si="1"/>
-        <v>44542</v>
-      </c>
-      <c r="CN12" s="26">
-        <f t="shared" si="1"/>
-        <v>44549</v>
-      </c>
-      <c r="CO12" s="26">
-        <f t="shared" si="1"/>
-        <v>44556</v>
-      </c>
-      <c r="CP12" s="2" t="s">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="11">
+        <f>AV11+3</f>
+        <v>43834</v>
+      </c>
+      <c r="AW12" s="11">
+        <f t="shared" ref="AV12:AZ12" si="17">AW11+6</f>
+        <v>43841</v>
+      </c>
+      <c r="AX12" s="11">
+        <f t="shared" si="17"/>
+        <v>43848</v>
+      </c>
+      <c r="AY12" s="11">
+        <f t="shared" si="17"/>
+        <v>43855</v>
+      </c>
+      <c r="AZ12" s="11">
+        <f>AZ11+5</f>
+        <v>43861</v>
+      </c>
+      <c r="BA12" s="11">
+        <f t="shared" ref="BA12:BC12" si="18">BA11+5</f>
+        <v>43867</v>
+      </c>
+      <c r="BB12" s="11">
+        <f t="shared" si="18"/>
+        <v>43873</v>
+      </c>
+      <c r="BC12" s="11">
+        <f t="shared" si="18"/>
+        <v>43879</v>
+      </c>
+      <c r="BD12" s="11">
+        <f t="shared" ref="BD12" si="19">BD11+5</f>
+        <v>43885</v>
+      </c>
+      <c r="BE12" s="11">
+        <f>BE11+4</f>
+        <v>43890</v>
+      </c>
+      <c r="BF12" s="11">
+        <f t="shared" ref="BE12:BF12" si="20">BF11+5</f>
+        <v>43896</v>
+      </c>
+      <c r="BG12" s="11">
+        <f t="shared" ref="BG12" si="21">BG11+5</f>
+        <v>43902</v>
+      </c>
+      <c r="BH12" s="11">
+        <f t="shared" ref="BH12:BI12" si="22">BH11+5</f>
+        <v>43908</v>
+      </c>
+      <c r="BI12" s="11">
+        <f t="shared" si="22"/>
+        <v>43914</v>
+      </c>
+      <c r="BJ12" s="11">
+        <f>BJ11+6</f>
+        <v>43921</v>
+      </c>
+      <c r="BK12" s="11">
+        <f t="shared" ref="BK12:BL12" si="23">BK11+5</f>
+        <v>43927</v>
+      </c>
+      <c r="BL12" s="11">
+        <f t="shared" si="23"/>
+        <v>43933</v>
+      </c>
+      <c r="BM12" s="11">
+        <f>BM11+5</f>
+        <v>43939</v>
+      </c>
+      <c r="BN12" s="11">
+        <f t="shared" ref="BN12" si="24">BN11+5</f>
+        <v>43945</v>
+      </c>
+      <c r="BO12" s="11">
+        <f>BO11+5</f>
+        <v>43951</v>
+      </c>
+      <c r="BP12" s="11">
+        <f>BP11+4</f>
+        <v>43956</v>
+      </c>
+      <c r="BQ12" s="11">
+        <f>BQ11+6</f>
+        <v>43963</v>
+      </c>
+      <c r="BR12" s="11">
+        <f>BR11+6</f>
+        <v>43970</v>
+      </c>
+      <c r="BS12" s="11">
+        <f>BS11+6</f>
+        <v>43977</v>
+      </c>
+      <c r="BT12" s="11">
+        <f>BT11+4</f>
+        <v>43982</v>
+      </c>
+      <c r="BU12" s="11">
+        <f>BU11+4</f>
+        <v>43987</v>
+      </c>
+      <c r="BV12" s="11">
+        <f>BV11+6</f>
+        <v>43994</v>
+      </c>
+      <c r="BW12" s="11">
+        <f>BW11+6</f>
+        <v>44001</v>
+      </c>
+      <c r="BX12" s="11">
+        <f>BX11+6</f>
+        <v>44008</v>
+      </c>
+      <c r="BY12" s="11">
+        <f>BY11+3</f>
+        <v>44012</v>
+      </c>
+      <c r="BZ12" s="11">
+        <f>BZ11+4</f>
+        <v>44017</v>
+      </c>
+      <c r="CA12" s="11">
+        <f>CA11+6</f>
+        <v>44024</v>
+      </c>
+      <c r="CB12" s="11">
+        <f>CB11+6</f>
+        <v>44031</v>
+      </c>
+      <c r="CC12" s="11">
+        <f>CC11+6</f>
+        <v>44038</v>
+      </c>
+      <c r="CD12" s="11">
+        <f>CD11+4</f>
+        <v>44043</v>
+      </c>
+      <c r="CE12" s="11">
+        <f>CE11+4</f>
+        <v>44048</v>
+      </c>
+      <c r="CF12" s="11">
+        <f>CF11+6</f>
+        <v>44055</v>
+      </c>
+      <c r="CG12" s="11">
+        <f>CG11+6</f>
+        <v>44062</v>
+      </c>
+      <c r="CH12" s="11">
+        <f>CH11+6</f>
+        <v>44069</v>
+      </c>
+      <c r="CI12" s="11">
+        <f>CI11+4</f>
+        <v>44074</v>
+      </c>
+      <c r="CJ12" s="11">
+        <f>CJ11+4</f>
+        <v>44079</v>
+      </c>
+      <c r="CK12" s="11">
+        <f>CK11+6</f>
+        <v>44086</v>
+      </c>
+      <c r="CL12" s="11">
+        <f>CL11+6</f>
+        <v>44093</v>
+      </c>
+      <c r="CM12" s="11">
+        <f>CM11+6</f>
+        <v>44100</v>
+      </c>
+      <c r="CN12" s="11">
+        <f>CN11+3</f>
+        <v>44104</v>
+      </c>
+      <c r="CO12" s="11">
+        <f>CO11+4</f>
+        <v>44109</v>
+      </c>
+      <c r="CP12" s="11">
+        <f>CP11+6</f>
+        <v>44116</v>
+      </c>
+      <c r="CQ12" s="11">
+        <f t="shared" ref="CQ12:DC12" si="25">CQ11+6</f>
+        <v>44123</v>
+      </c>
+      <c r="CR12" s="11">
+        <f t="shared" si="25"/>
+        <v>44130</v>
+      </c>
+      <c r="CS12" s="11">
+        <f>CS11+4</f>
+        <v>44135</v>
+      </c>
+      <c r="CT12" s="11">
+        <f>CT11+4</f>
+        <v>44140</v>
+      </c>
+      <c r="CU12" s="11">
+        <f t="shared" si="25"/>
+        <v>44147</v>
+      </c>
+      <c r="CV12" s="11">
+        <f t="shared" si="25"/>
+        <v>44154</v>
+      </c>
+      <c r="CW12" s="11">
+        <f t="shared" si="25"/>
+        <v>44161</v>
+      </c>
+      <c r="CX12" s="11">
+        <f>CX11+3</f>
+        <v>44165</v>
+      </c>
+      <c r="CY12" s="11">
+        <f>CY11+4</f>
+        <v>44170</v>
+      </c>
+      <c r="CZ12" s="11">
+        <f t="shared" si="25"/>
+        <v>44177</v>
+      </c>
+      <c r="DA12" s="11">
+        <f t="shared" si="25"/>
+        <v>44184</v>
+      </c>
+      <c r="DB12" s="11">
+        <f t="shared" si="25"/>
+        <v>44191</v>
+      </c>
+      <c r="DC12" s="11">
+        <f>DC11+4</f>
+        <v>44196</v>
+      </c>
+      <c r="DD12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="CQ12" s="2" t="s">
+      <c r="DE12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="CR12" s="2" t="s">
+      <c r="DF12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="CS12" s="2" t="s">
+      <c r="DG12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="CT12" s="2" t="s">
+      <c r="DH12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="CU12" s="17"/>
-      <c r="CV12" s="17"/>
-      <c r="CW12" s="15"/>
-      <c r="CX12" s="15"/>
-      <c r="CY12" s="15"/>
-      <c r="CZ12" s="15"/>
-      <c r="DA12" s="15"/>
+      <c r="DI12" s="19"/>
+      <c r="DJ12" s="19"/>
+      <c r="DK12" s="25"/>
+      <c r="DL12" s="25"/>
+      <c r="DM12" s="25"/>
+      <c r="DN12" s="25"/>
+      <c r="DO12" s="25"/>
     </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
-      <c r="AV13" s="11"/>
-      <c r="AW13" s="11"/>
-      <c r="AX13" s="11"/>
-      <c r="AY13" s="11"/>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="11"/>
-      <c r="BB13" s="11"/>
-      <c r="BC13" s="11"/>
-      <c r="BD13" s="11"/>
-      <c r="BE13" s="11"/>
-      <c r="BF13" s="11"/>
-      <c r="BG13" s="11"/>
-      <c r="BH13" s="11"/>
-      <c r="BI13" s="11"/>
-      <c r="BJ13" s="11"/>
-      <c r="BK13" s="11"/>
-      <c r="BL13" s="11"/>
-      <c r="BM13" s="11"/>
-      <c r="BN13" s="11"/>
-      <c r="BO13" s="11"/>
-      <c r="BP13" s="11"/>
-      <c r="BQ13" s="11"/>
-      <c r="BR13" s="11"/>
-      <c r="BS13" s="11"/>
-      <c r="BT13" s="11"/>
-      <c r="BU13" s="11"/>
-      <c r="BV13" s="11"/>
-      <c r="BW13" s="11"/>
-      <c r="BX13" s="11"/>
-      <c r="BY13" s="11"/>
-      <c r="BZ13" s="11"/>
-      <c r="CA13" s="11"/>
-      <c r="CB13" s="11"/>
-      <c r="CC13" s="11"/>
-      <c r="CD13" s="11"/>
-      <c r="CE13" s="11"/>
-      <c r="CF13" s="11"/>
-      <c r="CG13" s="11"/>
-      <c r="CH13" s="11"/>
-      <c r="CI13" s="11"/>
-      <c r="CJ13" s="11"/>
-      <c r="CK13" s="11"/>
-      <c r="CL13" s="11"/>
-      <c r="CM13" s="11"/>
-      <c r="CN13" s="11"/>
-      <c r="CO13" s="11"/>
-      <c r="CP13" s="11"/>
-      <c r="CQ13" s="11"/>
-      <c r="CR13" s="11"/>
-      <c r="CS13" s="11"/>
-      <c r="CT13" s="11"/>
-      <c r="CU13" s="11"/>
-      <c r="CV13" s="11"/>
-      <c r="CW13" s="11"/>
-      <c r="CX13" s="11"/>
-      <c r="CY13" s="11"/>
-      <c r="CZ13" s="11"/>
-      <c r="DA13" s="11"/>
+    <row r="13" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="3"/>
+      <c r="BQ13" s="3"/>
+      <c r="BR13" s="3"/>
+      <c r="BS13" s="3"/>
+      <c r="BT13" s="3"/>
+      <c r="BU13" s="3"/>
+      <c r="BV13" s="3"/>
+      <c r="BW13" s="3"/>
+      <c r="BX13" s="3"/>
+      <c r="BY13" s="3"/>
+      <c r="BZ13" s="3"/>
+      <c r="CA13" s="3"/>
+      <c r="CB13" s="3"/>
+      <c r="CC13" s="3"/>
+      <c r="CD13" s="3"/>
+      <c r="CE13" s="3"/>
+      <c r="CF13" s="3"/>
+      <c r="CG13" s="3"/>
+      <c r="CH13" s="3"/>
+      <c r="CI13" s="3"/>
+      <c r="CJ13" s="3"/>
+      <c r="CK13" s="3"/>
+      <c r="CL13" s="3"/>
+      <c r="CM13" s="3"/>
+      <c r="CN13" s="3"/>
+      <c r="CO13" s="3"/>
+      <c r="CP13" s="3"/>
+      <c r="CQ13" s="3"/>
+      <c r="CR13" s="3"/>
+      <c r="CS13" s="3"/>
+      <c r="CT13" s="3"/>
+      <c r="CU13" s="3"/>
+      <c r="CV13" s="3"/>
+      <c r="CW13" s="3"/>
+      <c r="CX13" s="3"/>
+      <c r="CY13" s="3"/>
+      <c r="CZ13" s="3"/>
+      <c r="DA13" s="3"/>
     </row>
-    <row r="15" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="AZ15" s="25"/>
+    <row r="14" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+      <c r="BO14" s="3"/>
+      <c r="BP14" s="3"/>
+      <c r="BQ14" s="3"/>
+      <c r="BR14" s="3"/>
+      <c r="BS14" s="3"/>
+      <c r="BT14" s="3"/>
+      <c r="BU14" s="3"/>
+      <c r="BV14" s="3"/>
+      <c r="BW14" s="3"/>
+      <c r="BX14" s="3"/>
+      <c r="BY14" s="3"/>
+      <c r="BZ14" s="3"/>
+      <c r="CA14" s="3"/>
+      <c r="CB14" s="3"/>
+      <c r="CC14" s="3"/>
+      <c r="CD14" s="3"/>
+      <c r="CE14" s="3"/>
+      <c r="CF14" s="3"/>
+      <c r="CG14" s="3"/>
+      <c r="CH14" s="3"/>
+      <c r="CI14" s="3"/>
+      <c r="CJ14" s="3"/>
+      <c r="CK14" s="3"/>
+      <c r="CL14" s="3"/>
+      <c r="CM14" s="3"/>
+      <c r="CN14" s="3"/>
+      <c r="CO14" s="3"/>
+      <c r="CP14" s="3"/>
+      <c r="CQ14" s="3"/>
+      <c r="CR14" s="3"/>
+      <c r="CS14" s="3"/>
+      <c r="CT14" s="3"/>
+      <c r="CU14" s="3"/>
+      <c r="CV14" s="3"/>
+      <c r="CW14" s="3"/>
+      <c r="CX14" s="3"/>
+      <c r="CY14" s="3"/>
+      <c r="CZ14" s="3"/>
+      <c r="DA14" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="26"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+      <c r="BO15" s="3"/>
+      <c r="BP15" s="3"/>
+      <c r="BQ15" s="3"/>
+      <c r="BR15" s="3"/>
+      <c r="BS15" s="3"/>
+      <c r="BT15" s="3"/>
+      <c r="BU15" s="3"/>
+      <c r="BV15" s="3"/>
+      <c r="BW15" s="3"/>
+      <c r="BX15" s="3"/>
+      <c r="BY15" s="3"/>
+      <c r="BZ15" s="3"/>
+      <c r="CA15" s="3"/>
+      <c r="CB15" s="3"/>
+      <c r="CC15" s="3"/>
+      <c r="CD15" s="3"/>
+      <c r="CE15" s="3"/>
+      <c r="CF15" s="3"/>
+      <c r="CG15" s="3"/>
+      <c r="CH15" s="3"/>
+      <c r="CI15" s="3"/>
+      <c r="CJ15" s="3"/>
+      <c r="CK15" s="3"/>
+      <c r="CL15" s="3"/>
+      <c r="CM15" s="3"/>
+      <c r="CN15" s="3"/>
+      <c r="CO15" s="3"/>
+      <c r="CP15" s="3"/>
+      <c r="CQ15" s="3"/>
+      <c r="CR15" s="3"/>
+      <c r="CS15" s="3"/>
+      <c r="CT15" s="3"/>
+      <c r="CU15" s="3"/>
+      <c r="CV15" s="3"/>
+      <c r="CW15" s="3"/>
+      <c r="CX15" s="3"/>
+      <c r="CY15" s="3"/>
+      <c r="CZ15" s="3"/>
+      <c r="DA15" s="3"/>
+    </row>
+    <row r="16" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+      <c r="BO16" s="3"/>
+      <c r="BP16" s="3"/>
+      <c r="BQ16" s="3"/>
+      <c r="BR16" s="3"/>
+      <c r="BS16" s="3"/>
+      <c r="BT16" s="3"/>
+      <c r="BU16" s="3"/>
+      <c r="BV16" s="3"/>
+      <c r="BW16" s="3"/>
+      <c r="BX16" s="3"/>
+      <c r="BY16" s="3"/>
+      <c r="BZ16" s="3"/>
+      <c r="CA16" s="3"/>
+      <c r="CB16" s="3"/>
+      <c r="CC16" s="3"/>
+      <c r="CD16" s="3"/>
+      <c r="CE16" s="3"/>
+      <c r="CF16" s="3"/>
+      <c r="CG16" s="3"/>
+      <c r="CH16" s="3"/>
+      <c r="CI16" s="3"/>
+      <c r="CJ16" s="3"/>
+      <c r="CK16" s="3"/>
+      <c r="CL16" s="3"/>
+      <c r="CM16" s="3"/>
+      <c r="CN16" s="3"/>
+      <c r="CO16" s="3"/>
+      <c r="CP16" s="3"/>
+      <c r="CQ16" s="3"/>
+      <c r="CR16" s="3"/>
+      <c r="CS16" s="3"/>
+      <c r="CT16" s="3"/>
+      <c r="CU16" s="3"/>
+      <c r="CV16" s="3"/>
+      <c r="CW16" s="3"/>
+      <c r="CX16" s="3"/>
+      <c r="CY16" s="3"/>
+      <c r="CZ16" s="3"/>
+      <c r="DA16" s="3"/>
+    </row>
+    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
+      <c r="BP17" s="3"/>
+      <c r="BQ17" s="3"/>
+      <c r="BR17" s="3"/>
+      <c r="BS17" s="3"/>
+      <c r="BT17" s="3"/>
+      <c r="BU17" s="3"/>
+      <c r="BV17" s="3"/>
+      <c r="BW17" s="3"/>
+      <c r="BX17" s="3"/>
+      <c r="BY17" s="3"/>
+      <c r="BZ17" s="3"/>
+      <c r="CA17" s="3"/>
+      <c r="CB17" s="3"/>
+      <c r="CC17" s="3"/>
+      <c r="CD17" s="3"/>
+      <c r="CE17" s="3"/>
+      <c r="CF17" s="3"/>
+      <c r="CG17" s="3"/>
+      <c r="CH17" s="3"/>
+      <c r="CI17" s="3"/>
+      <c r="CJ17" s="3"/>
+      <c r="CK17" s="3"/>
+      <c r="CL17" s="3"/>
+      <c r="CM17" s="3"/>
+      <c r="CN17" s="3"/>
+      <c r="CO17" s="3"/>
+      <c r="CP17" s="3"/>
+      <c r="CQ17" s="3"/>
+      <c r="CR17" s="3"/>
+      <c r="CS17" s="3"/>
+      <c r="CT17" s="3"/>
+      <c r="CU17" s="3"/>
+      <c r="CV17" s="3"/>
+      <c r="CW17" s="3"/>
+      <c r="CX17" s="3"/>
+      <c r="CY17" s="3"/>
+      <c r="CZ17" s="3"/>
+      <c r="DA17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
+      <c r="BP18" s="3"/>
+      <c r="BQ18" s="3"/>
+      <c r="BR18" s="3"/>
+      <c r="BS18" s="3"/>
+      <c r="BT18" s="3"/>
+      <c r="BU18" s="3"/>
+      <c r="BV18" s="3"/>
+      <c r="BW18" s="3"/>
+      <c r="BX18" s="3"/>
+      <c r="BY18" s="3"/>
+      <c r="BZ18" s="3"/>
+      <c r="CA18" s="3"/>
+      <c r="CB18" s="3"/>
+      <c r="CC18" s="3"/>
+      <c r="CD18" s="3"/>
+      <c r="CE18" s="3"/>
+      <c r="CF18" s="3"/>
+      <c r="CG18" s="3"/>
+      <c r="CH18" s="3"/>
+      <c r="CI18" s="3"/>
+      <c r="CJ18" s="3"/>
+      <c r="CK18" s="3"/>
+      <c r="CL18" s="3"/>
+      <c r="CM18" s="3"/>
+      <c r="CN18" s="3"/>
+      <c r="CO18" s="3"/>
+      <c r="CP18" s="3"/>
+      <c r="CQ18" s="3"/>
+      <c r="CR18" s="3"/>
+      <c r="CS18" s="3"/>
+      <c r="CT18" s="3"/>
+      <c r="CU18" s="3"/>
+      <c r="CV18" s="3"/>
+      <c r="CW18" s="3"/>
+      <c r="CX18" s="3"/>
+      <c r="CY18" s="3"/>
+      <c r="CZ18" s="3"/>
+      <c r="DA18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
+      <c r="BP19" s="3"/>
+      <c r="BQ19" s="3"/>
+      <c r="BR19" s="3"/>
+      <c r="BS19" s="3"/>
+      <c r="BT19" s="3"/>
+      <c r="BU19" s="3"/>
+      <c r="BV19" s="3"/>
+      <c r="BW19" s="3"/>
+      <c r="BX19" s="3"/>
+      <c r="BY19" s="3"/>
+      <c r="BZ19" s="3"/>
+      <c r="CA19" s="3"/>
+      <c r="CB19" s="3"/>
+      <c r="CC19" s="3"/>
+      <c r="CD19" s="3"/>
+      <c r="CE19" s="3"/>
+      <c r="CF19" s="3"/>
+      <c r="CG19" s="3"/>
+      <c r="CH19" s="3"/>
+      <c r="CI19" s="3"/>
+      <c r="CJ19" s="3"/>
+      <c r="CK19" s="3"/>
+      <c r="CL19" s="3"/>
+      <c r="CM19" s="3"/>
+      <c r="CN19" s="3"/>
+      <c r="CO19" s="3"/>
+      <c r="CP19" s="3"/>
+      <c r="CQ19" s="3"/>
+      <c r="CR19" s="3"/>
+      <c r="CS19" s="3"/>
+      <c r="CT19" s="3"/>
+      <c r="CU19" s="3"/>
+      <c r="CV19" s="3"/>
+      <c r="CW19" s="3"/>
+      <c r="CX19" s="3"/>
+      <c r="CY19" s="3"/>
+      <c r="CZ19" s="3"/>
+      <c r="DA19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+      <c r="BO20" s="3"/>
+      <c r="BP20" s="3"/>
+      <c r="BQ20" s="3"/>
+      <c r="BR20" s="3"/>
+      <c r="BS20" s="3"/>
+      <c r="BT20" s="3"/>
+      <c r="BU20" s="3"/>
+      <c r="BV20" s="3"/>
+      <c r="BW20" s="3"/>
+      <c r="BX20" s="3"/>
+      <c r="BY20" s="3"/>
+      <c r="BZ20" s="3"/>
+      <c r="CA20" s="3"/>
+      <c r="CB20" s="3"/>
+      <c r="CC20" s="3"/>
+      <c r="CD20" s="3"/>
+      <c r="CE20" s="3"/>
+      <c r="CF20" s="3"/>
+      <c r="CG20" s="3"/>
+      <c r="CH20" s="3"/>
+      <c r="CI20" s="3"/>
+      <c r="CJ20" s="3"/>
+      <c r="CK20" s="3"/>
+      <c r="CL20" s="3"/>
+      <c r="CM20" s="3"/>
+      <c r="CN20" s="3"/>
+      <c r="CO20" s="3"/>
+      <c r="CP20" s="3"/>
+      <c r="CQ20" s="3"/>
+      <c r="CR20" s="3"/>
+      <c r="CS20" s="3"/>
+      <c r="CT20" s="3"/>
+      <c r="CU20" s="3"/>
+      <c r="CV20" s="3"/>
+      <c r="CW20" s="3"/>
+      <c r="CX20" s="3"/>
+      <c r="CY20" s="3"/>
+      <c r="CZ20" s="3"/>
+      <c r="DA20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
+      <c r="BP21" s="3"/>
+      <c r="BQ21" s="3"/>
+      <c r="BR21" s="3"/>
+      <c r="BS21" s="3"/>
+      <c r="BT21" s="3"/>
+      <c r="BU21" s="3"/>
+      <c r="BV21" s="3"/>
+      <c r="BW21" s="3"/>
+      <c r="BX21" s="3"/>
+      <c r="BY21" s="3"/>
+      <c r="BZ21" s="3"/>
+      <c r="CA21" s="3"/>
+      <c r="CB21" s="3"/>
+      <c r="CC21" s="3"/>
+      <c r="CD21" s="3"/>
+      <c r="CE21" s="3"/>
+      <c r="CF21" s="3"/>
+      <c r="CG21" s="3"/>
+      <c r="CH21" s="3"/>
+      <c r="CI21" s="3"/>
+      <c r="CJ21" s="3"/>
+      <c r="CK21" s="3"/>
+      <c r="CL21" s="3"/>
+      <c r="CM21" s="3"/>
+      <c r="CN21" s="3"/>
+      <c r="CO21" s="3"/>
+      <c r="CP21" s="3"/>
+      <c r="CQ21" s="3"/>
+      <c r="CR21" s="3"/>
+      <c r="CS21" s="3"/>
+      <c r="CT21" s="3"/>
+      <c r="CU21" s="3"/>
+      <c r="CV21" s="3"/>
+      <c r="CW21" s="3"/>
+      <c r="CX21" s="3"/>
+      <c r="CY21" s="3"/>
+      <c r="CZ21" s="3"/>
+      <c r="DA21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
+      <c r="BP22" s="3"/>
+      <c r="BQ22" s="3"/>
+      <c r="BR22" s="3"/>
+      <c r="BS22" s="3"/>
+      <c r="BT22" s="3"/>
+      <c r="BU22" s="3"/>
+      <c r="BV22" s="3"/>
+      <c r="BW22" s="3"/>
+      <c r="BX22" s="3"/>
+      <c r="BY22" s="3"/>
+      <c r="BZ22" s="3"/>
+      <c r="CA22" s="3"/>
+      <c r="CB22" s="3"/>
+      <c r="CC22" s="3"/>
+      <c r="CD22" s="3"/>
+      <c r="CE22" s="3"/>
+      <c r="CF22" s="3"/>
+      <c r="CG22" s="3"/>
+      <c r="CH22" s="3"/>
+      <c r="CI22" s="3"/>
+      <c r="CJ22" s="3"/>
+      <c r="CK22" s="3"/>
+      <c r="CL22" s="3"/>
+      <c r="CM22" s="3"/>
+      <c r="CN22" s="3"/>
+      <c r="CO22" s="3"/>
+      <c r="CP22" s="3"/>
+      <c r="CQ22" s="3"/>
+      <c r="CR22" s="3"/>
+      <c r="CS22" s="3"/>
+      <c r="CT22" s="3"/>
+      <c r="CU22" s="3"/>
+      <c r="CV22" s="3"/>
+      <c r="CW22" s="3"/>
+      <c r="CX22" s="3"/>
+      <c r="CY22" s="3"/>
+      <c r="CZ22" s="3"/>
+      <c r="DA22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="3"/>
+      <c r="BP23" s="3"/>
+      <c r="BQ23" s="3"/>
+      <c r="BR23" s="3"/>
+      <c r="BS23" s="3"/>
+      <c r="BT23" s="3"/>
+      <c r="BU23" s="3"/>
+      <c r="BV23" s="3"/>
+      <c r="BW23" s="3"/>
+      <c r="BX23" s="3"/>
+      <c r="BY23" s="3"/>
+      <c r="BZ23" s="3"/>
+      <c r="CA23" s="3"/>
+      <c r="CB23" s="3"/>
+      <c r="CC23" s="3"/>
+      <c r="CD23" s="3"/>
+      <c r="CE23" s="3"/>
+      <c r="CF23" s="3"/>
+      <c r="CG23" s="3"/>
+      <c r="CH23" s="3"/>
+      <c r="CI23" s="3"/>
+      <c r="CJ23" s="3"/>
+      <c r="CK23" s="3"/>
+      <c r="CL23" s="3"/>
+      <c r="CM23" s="3"/>
+      <c r="CN23" s="3"/>
+      <c r="CO23" s="3"/>
+      <c r="CP23" s="3"/>
+      <c r="CQ23" s="3"/>
+      <c r="CR23" s="3"/>
+      <c r="CS23" s="3"/>
+      <c r="CT23" s="3"/>
+      <c r="CU23" s="3"/>
+      <c r="CV23" s="3"/>
+      <c r="CW23" s="3"/>
+      <c r="CX23" s="3"/>
+      <c r="CY23" s="3"/>
+      <c r="CZ23" s="3"/>
+      <c r="DA23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="3"/>
+      <c r="BP24" s="3"/>
+      <c r="BQ24" s="3"/>
+      <c r="BR24" s="3"/>
+      <c r="BS24" s="3"/>
+      <c r="BT24" s="3"/>
+      <c r="BU24" s="3"/>
+      <c r="BV24" s="3"/>
+      <c r="BW24" s="3"/>
+      <c r="BX24" s="3"/>
+      <c r="BY24" s="3"/>
+      <c r="BZ24" s="3"/>
+      <c r="CA24" s="3"/>
+      <c r="CB24" s="3"/>
+      <c r="CC24" s="3"/>
+      <c r="CD24" s="3"/>
+      <c r="CE24" s="3"/>
+      <c r="CF24" s="3"/>
+      <c r="CG24" s="3"/>
+      <c r="CH24" s="3"/>
+      <c r="CI24" s="3"/>
+      <c r="CJ24" s="3"/>
+      <c r="CK24" s="3"/>
+      <c r="CL24" s="3"/>
+      <c r="CM24" s="3"/>
+      <c r="CN24" s="3"/>
+      <c r="CO24" s="3"/>
+      <c r="CP24" s="3"/>
+      <c r="CQ24" s="3"/>
+      <c r="CR24" s="3"/>
+      <c r="CS24" s="3"/>
+      <c r="CT24" s="3"/>
+      <c r="CU24" s="3"/>
+      <c r="CV24" s="3"/>
+      <c r="CW24" s="3"/>
+      <c r="CX24" s="3"/>
+      <c r="CY24" s="3"/>
+      <c r="CZ24" s="3"/>
+      <c r="DA24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+      <c r="BO25" s="3"/>
+      <c r="BP25" s="3"/>
+      <c r="BQ25" s="3"/>
+      <c r="BR25" s="3"/>
+      <c r="BS25" s="3"/>
+      <c r="BT25" s="3"/>
+      <c r="BU25" s="3"/>
+      <c r="BV25" s="3"/>
+      <c r="BW25" s="3"/>
+      <c r="BX25" s="3"/>
+      <c r="BY25" s="3"/>
+      <c r="BZ25" s="3"/>
+      <c r="CA25" s="3"/>
+      <c r="CB25" s="3"/>
+      <c r="CC25" s="3"/>
+      <c r="CD25" s="3"/>
+      <c r="CE25" s="3"/>
+      <c r="CF25" s="3"/>
+      <c r="CG25" s="3"/>
+      <c r="CH25" s="3"/>
+      <c r="CI25" s="3"/>
+      <c r="CJ25" s="3"/>
+      <c r="CK25" s="3"/>
+      <c r="CL25" s="3"/>
+      <c r="CM25" s="3"/>
+      <c r="CN25" s="3"/>
+      <c r="CO25" s="3"/>
+      <c r="CP25" s="3"/>
+      <c r="CQ25" s="3"/>
+      <c r="CR25" s="3"/>
+      <c r="CS25" s="3"/>
+      <c r="CT25" s="3"/>
+      <c r="CU25" s="3"/>
+      <c r="CV25" s="3"/>
+      <c r="CW25" s="3"/>
+      <c r="CX25" s="3"/>
+      <c r="CY25" s="3"/>
+      <c r="CZ25" s="3"/>
+      <c r="DA25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+      <c r="BO26" s="3"/>
+      <c r="BP26" s="3"/>
+      <c r="BQ26" s="3"/>
+      <c r="BR26" s="3"/>
+      <c r="BS26" s="3"/>
+      <c r="BT26" s="3"/>
+      <c r="BU26" s="3"/>
+      <c r="BV26" s="3"/>
+      <c r="BW26" s="3"/>
+      <c r="BX26" s="3"/>
+      <c r="BY26" s="3"/>
+      <c r="BZ26" s="3"/>
+      <c r="CA26" s="3"/>
+      <c r="CB26" s="3"/>
+      <c r="CC26" s="3"/>
+      <c r="CD26" s="3"/>
+      <c r="CE26" s="3"/>
+      <c r="CF26" s="3"/>
+      <c r="CG26" s="3"/>
+      <c r="CH26" s="3"/>
+      <c r="CI26" s="3"/>
+      <c r="CJ26" s="3"/>
+      <c r="CK26" s="3"/>
+      <c r="CL26" s="3"/>
+      <c r="CM26" s="3"/>
+      <c r="CN26" s="3"/>
+      <c r="CO26" s="3"/>
+      <c r="CP26" s="3"/>
+      <c r="CQ26" s="3"/>
+      <c r="CR26" s="3"/>
+      <c r="CS26" s="3"/>
+      <c r="CT26" s="3"/>
+      <c r="CU26" s="3"/>
+      <c r="CV26" s="3"/>
+      <c r="CW26" s="3"/>
+      <c r="CX26" s="3"/>
+      <c r="CY26" s="3"/>
+      <c r="CZ26" s="3"/>
+      <c r="DA26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+      <c r="BO27" s="3"/>
+      <c r="BP27" s="3"/>
+      <c r="BQ27" s="3"/>
+      <c r="BR27" s="3"/>
+      <c r="BS27" s="3"/>
+      <c r="BT27" s="3"/>
+      <c r="BU27" s="3"/>
+      <c r="BV27" s="3"/>
+      <c r="BW27" s="3"/>
+      <c r="BX27" s="3"/>
+      <c r="BY27" s="3"/>
+      <c r="BZ27" s="3"/>
+      <c r="CA27" s="3"/>
+      <c r="CB27" s="3"/>
+      <c r="CC27" s="3"/>
+      <c r="CD27" s="3"/>
+      <c r="CE27" s="3"/>
+      <c r="CF27" s="3"/>
+      <c r="CG27" s="3"/>
+      <c r="CH27" s="3"/>
+      <c r="CI27" s="3"/>
+      <c r="CJ27" s="3"/>
+      <c r="CK27" s="3"/>
+      <c r="CL27" s="3"/>
+      <c r="CM27" s="3"/>
+      <c r="CN27" s="3"/>
+      <c r="CO27" s="3"/>
+      <c r="CP27" s="3"/>
+      <c r="CQ27" s="3"/>
+      <c r="CR27" s="3"/>
+      <c r="CS27" s="3"/>
+      <c r="CT27" s="3"/>
+      <c r="CU27" s="3"/>
+      <c r="CV27" s="3"/>
+      <c r="CW27" s="3"/>
+      <c r="CX27" s="3"/>
+      <c r="CY27" s="3"/>
+      <c r="CZ27" s="3"/>
+      <c r="DA27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="3"/>
+      <c r="BO28" s="3"/>
+      <c r="BP28" s="3"/>
+      <c r="BQ28" s="3"/>
+      <c r="BR28" s="3"/>
+      <c r="BS28" s="3"/>
+      <c r="BT28" s="3"/>
+      <c r="BU28" s="3"/>
+      <c r="BV28" s="3"/>
+      <c r="BW28" s="3"/>
+      <c r="BX28" s="3"/>
+      <c r="BY28" s="3"/>
+      <c r="BZ28" s="3"/>
+      <c r="CA28" s="3"/>
+      <c r="CB28" s="3"/>
+      <c r="CC28" s="3"/>
+      <c r="CD28" s="3"/>
+      <c r="CE28" s="3"/>
+      <c r="CF28" s="3"/>
+      <c r="CG28" s="3"/>
+      <c r="CH28" s="3"/>
+      <c r="CI28" s="3"/>
+      <c r="CJ28" s="3"/>
+      <c r="CK28" s="3"/>
+      <c r="CL28" s="3"/>
+      <c r="CM28" s="3"/>
+      <c r="CN28" s="3"/>
+      <c r="CO28" s="3"/>
+      <c r="CP28" s="3"/>
+      <c r="CQ28" s="3"/>
+      <c r="CR28" s="3"/>
+      <c r="CS28" s="3"/>
+      <c r="CT28" s="3"/>
+      <c r="CU28" s="3"/>
+      <c r="CV28" s="3"/>
+      <c r="CW28" s="3"/>
+      <c r="CX28" s="3"/>
+      <c r="CY28" s="3"/>
+      <c r="CZ28" s="3"/>
+      <c r="DA28" s="3"/>
+    </row>
+    <row r="29" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
+      <c r="BM29" s="3"/>
+      <c r="BN29" s="3"/>
+      <c r="BO29" s="3"/>
+      <c r="BP29" s="3"/>
+      <c r="BQ29" s="3"/>
+      <c r="BR29" s="3"/>
+      <c r="BS29" s="3"/>
+      <c r="BT29" s="3"/>
+      <c r="BU29" s="3"/>
+      <c r="BV29" s="3"/>
+      <c r="BW29" s="3"/>
+      <c r="BX29" s="3"/>
+      <c r="BY29" s="3"/>
+      <c r="BZ29" s="3"/>
+      <c r="CA29" s="3"/>
+      <c r="CB29" s="3"/>
+      <c r="CC29" s="3"/>
+      <c r="CD29" s="3"/>
+      <c r="CE29" s="3"/>
+      <c r="CF29" s="3"/>
+      <c r="CG29" s="3"/>
+      <c r="CH29" s="3"/>
+      <c r="CI29" s="3"/>
+      <c r="CJ29" s="3"/>
+      <c r="CK29" s="3"/>
+      <c r="CL29" s="3"/>
+      <c r="CM29" s="3"/>
+      <c r="CN29" s="3"/>
+      <c r="CO29" s="3"/>
+      <c r="CP29" s="3"/>
+      <c r="CQ29" s="3"/>
+      <c r="CR29" s="3"/>
+      <c r="CS29" s="3"/>
+      <c r="CT29" s="3"/>
+      <c r="CU29" s="3"/>
+      <c r="CV29" s="3"/>
+      <c r="CW29" s="3"/>
+      <c r="CX29" s="3"/>
+      <c r="CY29" s="3"/>
+      <c r="CZ29" s="3"/>
+      <c r="DA29" s="3"/>
+    </row>
+    <row r="30" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3"/>
+      <c r="BJ30" s="3"/>
+      <c r="BK30" s="3"/>
+      <c r="BL30" s="3"/>
+      <c r="BM30" s="3"/>
+      <c r="BN30" s="3"/>
+      <c r="BO30" s="3"/>
+      <c r="BP30" s="3"/>
+      <c r="BQ30" s="3"/>
+      <c r="BR30" s="3"/>
+      <c r="BS30" s="3"/>
+      <c r="BT30" s="3"/>
+      <c r="BU30" s="3"/>
+      <c r="BV30" s="3"/>
+      <c r="BW30" s="3"/>
+      <c r="BX30" s="3"/>
+      <c r="BY30" s="3"/>
+      <c r="BZ30" s="3"/>
+      <c r="CA30" s="3"/>
+      <c r="CB30" s="3"/>
+      <c r="CC30" s="3"/>
+      <c r="CD30" s="3"/>
+      <c r="CE30" s="3"/>
+      <c r="CF30" s="3"/>
+      <c r="CG30" s="3"/>
+      <c r="CH30" s="3"/>
+      <c r="CI30" s="3"/>
+      <c r="CJ30" s="3"/>
+      <c r="CK30" s="3"/>
+      <c r="CL30" s="3"/>
+      <c r="CM30" s="3"/>
+      <c r="CN30" s="3"/>
+      <c r="CO30" s="3"/>
+      <c r="CP30" s="3"/>
+      <c r="CQ30" s="3"/>
+      <c r="CR30" s="3"/>
+      <c r="CS30" s="3"/>
+      <c r="CT30" s="3"/>
+      <c r="CU30" s="3"/>
+      <c r="CV30" s="3"/>
+      <c r="CW30" s="3"/>
+      <c r="CX30" s="3"/>
+      <c r="CY30" s="3"/>
+      <c r="CZ30" s="3"/>
+      <c r="DA30" s="3"/>
+    </row>
+    <row r="31" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3"/>
+      <c r="BJ31" s="3"/>
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="3"/>
+      <c r="BM31" s="3"/>
+      <c r="BN31" s="3"/>
+      <c r="BO31" s="3"/>
+      <c r="BP31" s="3"/>
+      <c r="BQ31" s="3"/>
+      <c r="BR31" s="3"/>
+      <c r="BS31" s="3"/>
+      <c r="BT31" s="3"/>
+      <c r="BU31" s="3"/>
+      <c r="BV31" s="3"/>
+      <c r="BW31" s="3"/>
+      <c r="BX31" s="3"/>
+      <c r="BY31" s="3"/>
+      <c r="BZ31" s="3"/>
+      <c r="CA31" s="3"/>
+      <c r="CB31" s="3"/>
+      <c r="CC31" s="3"/>
+      <c r="CD31" s="3"/>
+      <c r="CE31" s="3"/>
+      <c r="CF31" s="3"/>
+      <c r="CG31" s="3"/>
+      <c r="CH31" s="3"/>
+      <c r="CI31" s="3"/>
+      <c r="CJ31" s="3"/>
+      <c r="CK31" s="3"/>
+      <c r="CL31" s="3"/>
+      <c r="CM31" s="3"/>
+      <c r="CN31" s="3"/>
+      <c r="CO31" s="3"/>
+      <c r="CP31" s="3"/>
+      <c r="CQ31" s="3"/>
+      <c r="CR31" s="3"/>
+      <c r="CS31" s="3"/>
+      <c r="CT31" s="3"/>
+      <c r="CU31" s="3"/>
+      <c r="CV31" s="3"/>
+      <c r="CW31" s="3"/>
+      <c r="CX31" s="3"/>
+      <c r="CY31" s="3"/>
+      <c r="CZ31" s="3"/>
+      <c r="DA31" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="W10:W12"/>
-    <mergeCell ref="X10:X12"/>
-    <mergeCell ref="AA10:AA12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="V10:V12"/>
+  <mergeCells count="52">
+    <mergeCell ref="CT10:CX10"/>
+    <mergeCell ref="CY10:DC10"/>
+    <mergeCell ref="BU10:BY10"/>
+    <mergeCell ref="BZ10:CD10"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="CJ10:CN10"/>
+    <mergeCell ref="CO10:CS10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="BF10:BJ10"/>
+    <mergeCell ref="BK10:BO10"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="DK10:DO10"/>
+    <mergeCell ref="DK11:DK12"/>
+    <mergeCell ref="DL11:DL12"/>
+    <mergeCell ref="DM11:DM12"/>
+    <mergeCell ref="DN11:DN12"/>
+    <mergeCell ref="DO11:DO12"/>
+    <mergeCell ref="DJ10:DJ12"/>
+    <mergeCell ref="DD10:DH10"/>
+    <mergeCell ref="DI10:DI12"/>
+    <mergeCell ref="AP11:AP12"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AT11:AT12"/>
     <mergeCell ref="AU11:AU12"/>
     <mergeCell ref="AB10:AB12"/>
     <mergeCell ref="Y10:Z12"/>
@@ -2773,29 +4947,16 @@
     <mergeCell ref="AE10:AE12"/>
     <mergeCell ref="AF10:AF12"/>
     <mergeCell ref="AG10:AG12"/>
-    <mergeCell ref="AP11:AP12"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="AT11:AT12"/>
-    <mergeCell ref="CV10:CV12"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="BA10:BF10"/>
-    <mergeCell ref="BG10:BK10"/>
-    <mergeCell ref="BL10:BP10"/>
-    <mergeCell ref="BQ10:BV10"/>
-    <mergeCell ref="BW10:CA10"/>
-    <mergeCell ref="CB10:CF10"/>
-    <mergeCell ref="CG10:CK10"/>
-    <mergeCell ref="CL10:CO10"/>
-    <mergeCell ref="CP10:CT10"/>
-    <mergeCell ref="CU10:CU12"/>
-    <mergeCell ref="CW10:DA10"/>
-    <mergeCell ref="CW11:CW12"/>
-    <mergeCell ref="CX11:CX12"/>
-    <mergeCell ref="CY11:CY12"/>
-    <mergeCell ref="CZ11:CZ12"/>
-    <mergeCell ref="DA11:DA12"/>
+    <mergeCell ref="AH10:AH12"/>
+    <mergeCell ref="W10:W12"/>
+    <mergeCell ref="X10:X12"/>
+    <mergeCell ref="AA10:AA12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="V10:V12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
